--- a/2/2/Variación mensual 1928 a 2021 - Mensual.xlsx
+++ b/2/2/Variación mensual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1125">
   <si>
     <t>Serie</t>
   </si>
@@ -3386,6 +3386,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -3743,7 +3746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1121"/>
+  <dimension ref="A1:D1122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15039,6 +15042,20 @@
         <v>-0.1</v>
       </c>
     </row>
+    <row r="1122" spans="1:4">
+      <c r="A1122" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1122">
+        <v>0.8</v>
+      </c>
+      <c r="C1122">
+        <v>0.6</v>
+      </c>
+      <c r="D1122">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/2/Variación mensual 1928 a 2021 - Mensual.xlsx
+++ b/2/2/Variación mensual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1126">
   <si>
     <t>Serie</t>
   </si>
@@ -3389,6 +3389,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -3746,7 +3749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1122"/>
+  <dimension ref="A1:D1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15056,6 +15059,20 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="1123" spans="1:4">
+      <c r="A1123" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1123">
+        <v>0.4</v>
+      </c>
+      <c r="C1123">
+        <v>0.4</v>
+      </c>
+      <c r="D1123">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/2/Variación mensual 1928 a 2021 - Mensual.xlsx
+++ b/2/2/Variación mensual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1127">
   <si>
     <t>Serie</t>
   </si>
@@ -3392,6 +3392,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -3749,7 +3752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1123"/>
+  <dimension ref="A1:D1124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15073,6 +15076,20 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="1124" spans="1:4">
+      <c r="A1124" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1124">
+        <v>1.2</v>
+      </c>
+      <c r="C1124">
+        <v>0.9</v>
+      </c>
+      <c r="D1124">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/2/Variación mensual 1928 a 2021 - Mensual.xlsx
+++ b/2/2/Variación mensual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1128">
   <si>
     <t>Serie</t>
   </si>
@@ -3395,6 +3395,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -3752,7 +3755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1124"/>
+  <dimension ref="A1:D1125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15090,6 +15093,20 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="1125" spans="1:4">
+      <c r="A1125" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1125">
+        <v>1.3</v>
+      </c>
+      <c r="C1125">
+        <v>1.4</v>
+      </c>
+      <c r="D1125">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
